--- a/addons/luban_godot/template_folder/#Card.xlsx
+++ b/addons/luban_godot/template_folder/#Card.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\GodotLearning\GameTemplate\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project\GodotTemplate\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8457294-26E5-428F-8899-0AFFD74C3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A6785-8D38-4902-8974-EE203D5E394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5229" yWindow="2186" windowWidth="24694" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="card" sheetId="1" r:id="rId1"/>
-    <sheet name="card_const" sheetId="2" r:id="rId2"/>
+    <sheet name="Card" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -148,14 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>##type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,31 +167,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>##column#var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>add_defend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD_MAX_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌最大持有量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -248,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,16 +254,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,12 +284,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -402,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,24 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,21 +684,21 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="11" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="8.58203125" style="11"/>
-    <col min="4" max="4" width="38.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="11" customWidth="1"/>
-    <col min="6" max="10" width="16.83203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="27.08203125" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="11"/>
+    <col min="1" max="1" width="5.0703125" style="11" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" style="11"/>
+    <col min="4" max="4" width="38.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="11" customWidth="1"/>
+    <col min="6" max="10" width="16.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="27.0703125" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,16 +715,16 @@
         <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="9" t="s">
         <v>29</v>
       </c>
@@ -812,9 +747,9 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -823,13 +758,13 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="4"/>
@@ -851,7 +786,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -868,18 +803,18 @@
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -900,7 +835,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -917,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>13</v>
@@ -953,7 +888,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="11">
         <v>1001</v>
       </c>
@@ -985,7 +920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>1002</v>
       </c>
@@ -993,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>22</v>
@@ -1017,7 +952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
         <v>1003</v>
       </c>
@@ -1025,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>19</v>
@@ -1049,12 +984,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" s="11">
         <v>1004</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>24</v>
@@ -1066,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H8" s="11">
         <v>5</v>
@@ -1081,15 +1016,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>1005</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>19</v>
@@ -1122,62 +1057,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.4140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="17">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>